--- a/Data/Input/ActiveUsers.xlsx
+++ b/Data/Input/ActiveUsers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH01_RetrieveReport\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD422D2D-35F0-4EC0-9311-DBC0E5A73897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AA1AE9-9E42-4209-90FD-C2AC88EED54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="5340" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13005" yWindow="0" windowWidth="38700" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -871,11 +871,13 @@
   <dimension ref="A1:CF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="26" max="26" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
